--- a/all_questions.xlsx
+++ b/all_questions.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="84">
   <si>
     <t xml:space="preserve">Text</t>
   </si>
@@ -29,226 +29,250 @@
     <t xml:space="preserve">Answer</t>
   </si>
   <si>
+    <t xml:space="preserve">Answer_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W których latach toczyła się pierwsza wojna punicka?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">264 p.n.e. – 241 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">przedział czasowy roczny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">starożytność</t>
+  </si>
+  <si>
+    <t xml:space="preserve">republika rzymska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W których latach toczyła się druga wojna punicka?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218 p.n.e. – 201 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W których latach toczyła się trzecia wojna punicka?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149 p.n.e. – 146 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W którym roku odbyła się bitwa pod Messaną?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">264 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W którym roku odbyła się bitwa pod Kannami?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W którym roku odbyła się bitwa pod Zamą?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W którym roku odbyła się bitwa pod Maratonem?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">starożytna grecja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W których latach toczyła się druga wojna perska?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480 p.n.e. – 449 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W którym roku odbyła się bitwa pod Cheroneą?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">338 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W którym roku odbyła się bitwa pod Rafią?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">217 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okres ptolemejski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W których latach panował Antioch III Wielki, władca Seleucydów?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223 p.n.e. – 187 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W którym roku odbyła się bitwa nad Jeziorem Trazymeńskim?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W których latach toczyła się pierwsza wojna macedońska?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215 p.n.e. – 205 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W których latach toczyła się druga wojna macedońska?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 p.n.e. - 196 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W których latach toczyła się trzecia wojna macedońska?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171 p.n.e. - 168 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W których latach miało miejsce Powstanie Spartkausa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73 p.n.e. - 71 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W którym roku odbyła się bitwa nad rzeką Silarus?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W którym roku Cezar przekroczył Rubikon?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiedy na świat przyszedł Aleksander III Macedoński?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">356 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okres panowania Aleksandra Wielkiego jako króla Macedonii to:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">336 p.n.e. - 323 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kto był dowódcą w bitwie pod Kannami po stronie Kartaginy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hannibal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">osoba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kto był dowódcą w bitwie pod Zamą po stronie Kartaginy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kto był dowódcą w bitwie pod Maratonem po stronie Greków?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miltiades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kto był dowódcą w bitwie pod Cheroneą po stronie Macedonii?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filip II Macedoński</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kto był dowódcą w bitwie pod Rafią po stronie Egipskiej?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ptolemeusz IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kto był dowódcą w bitwie nad Jeziorem Trazymeńskim po stronie Kartaginy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W którym roku odbyła się bitwa pod Alezją?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kto był dowódcą w bitwie pod Alezją po stronie Rzymian?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juliusz Cezar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kto był dowódcą w bitwie pod Alezją po stronie Galii?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wercyngetoryks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W którym roku odbyła się bitwa pod Tapsus?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W których latach panował Juliusz Cezar jako dyktator Rzymu?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 p.n.e. - 44 p.n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W którym roku stoczono bitwę pod Poitiers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">732 n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">średniowiecze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">państwo franków</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W którym roku stoczono bitwę pod Hastings?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1066 n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wikingowie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W którym roku odbyła się bitwa pod Badrem?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">624 n.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W którym roku odbyła się bitwa pod Fontenoy-en-Puisaye?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">841 n.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Category</t>
   </si>
   <si>
     <t xml:space="preserve">answer_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W których latach toczyła się pierwsza wojna punicka?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">264 p.n.e. – 241 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">starożytność</t>
-  </si>
-  <si>
-    <t xml:space="preserve">przedział czasowy roczny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W których latach toczyła się druga wojna punicka?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">218 p.n.e. – 201 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W których latach toczyła się trzecia wojna punicka?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149 p.n.e. – 146 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W którym roku odbyła się bitwa pod Messaną?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">264 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W którym roku odbyła się bitwa pod Kannami?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W którym roku odbyła się bitwa pod Zamą?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W którym roku odbyła się bitwa pod Maratonem?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W których latach toczyła się druga wojna perska?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480 p.n.e. – 449 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W którym roku odbyła się bitwa pod Cheroneą?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">338 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W którym roku odbyła się bitwa pod Rafią?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">217 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W których latach panował Antioch III Wielki, władca Seleucydów?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223 p.n.e. – 187 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W którym roku odbyła się bitwa nad Jeziorem Trazymeńskim?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W których latach toczyła się pierwsza wojna macedońska?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215 p.n.e. – 205 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W których latach toczyła się druga wojna macedońska?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 p.n.e. - 196 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W których latach toczyła się trzecia wojna macedońska?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171 p.n.e. - 168 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W których latach miało miejsce Powstanie Spartkausa?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73 p.n.e. - 71 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W którym roku odbyła się bitwa nad rzeką Silarus?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W którym roku Cezar przekroczył Rubikon?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiedy na świat przyszedł Aleksander III Macedoński?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">356 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okres panowania Aleksandra Wielkiego jako króla Macedonii to:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">336 p.n.e. - 323 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kto był dowódcą w bitwie pod Kannami po stronie Kartaginy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hannibal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osoba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kto był dowódcą w bitwie pod Zamą po stronie Kartaginy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kto był dowódcą w bitwie pod Maratonem po stronie Greków?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miltiades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kto był dowódcą w bitwie pod Cheroneą po stronie Macedonii?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filip II Macedoński</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kto był dowódcą w bitwie pod Rafią po stronie Egipskiej?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ptolemeusz IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kto był dowódcą w bitwie nad Jeziorem Trazymeńskim po stronie Kartaginy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W którym roku odbyła się bitwa pod Alezją?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kto był dowódcą w bitwie pod Alezją po stronie Rzymian?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juliusz Cezar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kto był dowódcą w bitwie pod Alezją po stronie Galii?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wercyngetoryks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W którym roku odbyła się bitwa pod Tapsus?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W których latach panował Juliusz Cezar jako dyktator Rzymu?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49 p.n.e. - 44 p.n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W którym roku stoczono bitwę pod Poitiers?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">732 n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">średniowiecze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W którym roku stoczono bitwę pod Hastings?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1066 n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W którym roku odbyła się bitwa pod Badrem?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">624 n.e.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W którym roku odbyła się bitwa pod Fontenoy-en-Puisaye?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">841 n.e.</t>
   </si>
 </sst>
 </file>
@@ -269,16 +293,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -345,18 +372,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -372,495 +401,603 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="C13" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="D25" s="0" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B35" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>14</v>
+      <c r="E35" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -881,11 +1018,11 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.21"/>
@@ -901,15 +1038,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -917,8 +1054,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regularna"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regularna"&amp;12Strona &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>